--- a/data/evaluation/evaluation_South_Autumn_Peppers.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Peppers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1436.005424907198</v>
+        <v>1433.508058278587</v>
       </c>
       <c r="C4" t="n">
-        <v>6085056.158497559</v>
+        <v>6056816.050178779</v>
       </c>
       <c r="D4" t="n">
-        <v>2466.790659642111</v>
+        <v>2461.059944450516</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08422925673184756</v>
+        <v>0.08847925283894142</v>
       </c>
     </row>
     <row r="5">
